--- a/output/5Y_P3_KFSDIV.xlsx
+++ b/output/5Y_P3_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-46</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-45</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-44</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-43</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-40</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-39</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-38</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-37</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-36</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-35</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-34</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.8576</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-33</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5699</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-32</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5994</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-31</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6663</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-30</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.701</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-29</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8109</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-28</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.9322</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.5846</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-26</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2867</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0645</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8083</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.5636</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-22</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.1788</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.5668</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-20</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.962</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2659</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.4103</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-17</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.3976</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-16</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9013</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3527</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8804</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6268</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3636</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.8711</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-10</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1252</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-9</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1934</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-8</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1176</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-7</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3311</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-6</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3637</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.6447</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-4</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.486</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.1958</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-2</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.4264</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>17.107</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.8894</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>16.4004</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>15.3877</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>14.6367</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.0061</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.835</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>14.4216</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.2404</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.382</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.9583</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.2036</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.9136</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.4338</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.9657</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-46</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-45</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-44</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-43</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-40</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-39</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-38</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-37</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-36</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-35</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-34</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.8576</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-33</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5699</v>
@@ -5144,10 +5147,10 @@
         <v>183829.6618</v>
       </c>
       <c r="K16" s="1">
-        <v>113368.0588</v>
+        <v>113376.3525</v>
       </c>
       <c r="L16" s="1">
-        <v>9.582800000000001</v>
+        <v>9.583500000000001</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-32</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5994</v>
@@ -5197,10 +5200,10 @@
         <v>206108.0589</v>
       </c>
       <c r="K17" s="1">
-        <v>114964.188</v>
+        <v>114972.4817</v>
       </c>
       <c r="L17" s="1">
-        <v>9.614699999999999</v>
+        <v>9.615399999999999</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-31</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6663</v>
@@ -5250,10 +5253,10 @@
         <v>234041.4924</v>
       </c>
       <c r="K18" s="1">
-        <v>112670.2588</v>
+        <v>112687.7103</v>
       </c>
       <c r="L18" s="1">
-        <v>9.557399999999999</v>
+        <v>9.5589</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-30</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.701</v>
@@ -5303,10 +5306,10 @@
         <v>244443.3507</v>
       </c>
       <c r="K19" s="1">
-        <v>110107.3034</v>
+        <v>110134.9923</v>
       </c>
       <c r="L19" s="1">
-        <v>9.4802</v>
+        <v>9.4826</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-29</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8109</v>
@@ -5356,10 +5359,10 @@
         <v>243506.6206</v>
       </c>
       <c r="K20" s="1">
-        <v>119743.9774</v>
+        <v>119771.6663</v>
       </c>
       <c r="L20" s="1">
-        <v>9.760199999999999</v>
+        <v>9.762499999999999</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-28</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.9322</v>
@@ -5409,10 +5412,10 @@
         <v>266132.4759</v>
       </c>
       <c r="K21" s="1">
-        <v>140726.021</v>
+        <v>140753.7099</v>
       </c>
       <c r="L21" s="1">
-        <v>10.2088</v>
+        <v>10.2108</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.5846</v>
@@ -5462,10 +5465,10 @@
         <v>256753.9435</v>
       </c>
       <c r="K22" s="1">
-        <v>149091.4982</v>
+        <v>149119.1871</v>
       </c>
       <c r="L22" s="1">
-        <v>10.3651</v>
+        <v>10.367</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-26</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2867</v>
@@ -5515,10 +5518,10 @@
         <v>261665.1659</v>
       </c>
       <c r="K23" s="1">
-        <v>178554.3527</v>
+        <v>178582.0416</v>
       </c>
       <c r="L23" s="1">
-        <v>10.6787</v>
+        <v>10.6804</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0645</v>
@@ -5568,10 +5571,10 @@
         <v>293057.2984</v>
       </c>
       <c r="K24" s="1">
-        <v>193585.4396</v>
+        <v>193613.1285</v>
       </c>
       <c r="L24" s="1">
-        <v>10.7898</v>
+        <v>10.7914</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8083</v>
@@ -5621,10 +5624,10 @@
         <v>316151.6198</v>
       </c>
       <c r="K25" s="1">
-        <v>189641.7268</v>
+        <v>189685.1716</v>
       </c>
       <c r="L25" s="1">
-        <v>10.7505</v>
+        <v>10.753</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.5636</v>
@@ -5674,10 +5677,10 @@
         <v>321898.7154</v>
       </c>
       <c r="K26" s="1">
-        <v>186534.9883</v>
+        <v>186590.8502</v>
       </c>
       <c r="L26" s="1">
-        <v>10.7108</v>
+        <v>10.714</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-22</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.1788</v>
@@ -5727,10 +5730,10 @@
         <v>332584.8056</v>
       </c>
       <c r="K27" s="1">
-        <v>200845.0665</v>
+        <v>200900.9284</v>
       </c>
       <c r="L27" s="1">
-        <v>10.875</v>
+        <v>10.878</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.5668</v>
@@ -5780,10 +5783,10 @@
         <v>369901.147</v>
       </c>
       <c r="K28" s="1">
-        <v>218007.4726</v>
+        <v>218063.3344</v>
       </c>
       <c r="L28" s="1">
-        <v>11.0282</v>
+        <v>11.031</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-20</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.962</v>
@@ -5833,10 +5836,10 @@
         <v>368690.8455</v>
       </c>
       <c r="K29" s="1">
-        <v>200552.7903</v>
+        <v>200678.3705</v>
       </c>
       <c r="L29" s="1">
-        <v>10.7984</v>
+        <v>10.8052</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2659</v>
@@ -5886,10 +5889,10 @@
         <v>352949.2266</v>
       </c>
       <c r="K30" s="1">
-        <v>221848.182</v>
+        <v>221973.7622</v>
       </c>
       <c r="L30" s="1">
-        <v>11.0402</v>
+        <v>11.0464</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.4103</v>
@@ -5939,10 +5942,10 @@
         <v>366186.4305</v>
       </c>
       <c r="K31" s="1">
-        <v>266038.831</v>
+        <v>266164.4112</v>
       </c>
       <c r="L31" s="1">
-        <v>11.23</v>
+        <v>11.2353</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-17</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.3976</v>
@@ -5992,10 +5995,10 @@
         <v>375852.3837</v>
       </c>
       <c r="K32" s="1">
-        <v>272651.5165</v>
+        <v>272777.0967</v>
       </c>
       <c r="L32" s="1">
-        <v>11.2564</v>
+        <v>11.2616</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-16</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9013</v>
@@ -6045,10 +6048,10 @@
         <v>409306.0331</v>
       </c>
       <c r="K33" s="1">
-        <v>283000.4554</v>
+        <v>283126.0356</v>
       </c>
       <c r="L33" s="1">
-        <v>11.2952</v>
+        <v>11.3002</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3527</v>
@@ -6098,10 +6101,10 @@
         <v>430502.4915</v>
       </c>
       <c r="K34" s="1">
-        <v>280394.907</v>
+        <v>280530.9075</v>
       </c>
       <c r="L34" s="1">
-        <v>11.282</v>
+        <v>11.2874</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8804</v>
@@ -6151,10 +6154,10 @@
         <v>453543.0138</v>
       </c>
       <c r="K35" s="1">
-        <v>279193.6451</v>
+        <v>279334.4492</v>
       </c>
       <c r="L35" s="1">
-        <v>11.2743</v>
+        <v>11.28</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6268</v>
@@ -6204,10 +6207,10 @@
         <v>492972.0188</v>
       </c>
       <c r="K36" s="1">
-        <v>276140.9191</v>
+        <v>276293.9269</v>
       </c>
       <c r="L36" s="1">
-        <v>11.2508</v>
+        <v>11.257</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3636</v>
@@ -6257,10 +6260,10 @@
         <v>520601.9717</v>
       </c>
       <c r="K37" s="1">
-        <v>267822.3394</v>
+        <v>268008.5508</v>
       </c>
       <c r="L37" s="1">
-        <v>11.1702</v>
+        <v>11.1779</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.8711</v>
@@ -6310,10 +6313,10 @@
         <v>495630.1138</v>
       </c>
       <c r="K38" s="1">
-        <v>260161.7829</v>
+        <v>260378.598</v>
       </c>
       <c r="L38" s="1">
-        <v>11.0807</v>
+        <v>11.0899</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-10</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1252</v>
@@ -6363,10 +6366,10 @@
         <v>522793.4354</v>
       </c>
       <c r="K39" s="1">
-        <v>305313.9389</v>
+        <v>305530.7539</v>
       </c>
       <c r="L39" s="1">
-        <v>11.4232</v>
+        <v>11.4313</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-9</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1934</v>
@@ -6416,10 +6419,10 @@
         <v>534613.5363</v>
       </c>
       <c r="K40" s="1">
-        <v>308548.7484</v>
+        <v>308765.5635</v>
       </c>
       <c r="L40" s="1">
-        <v>11.4463</v>
+        <v>11.4544</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-8</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1176</v>
@@ -6469,10 +6472,10 @@
         <v>542499.3192</v>
       </c>
       <c r="K41" s="1">
-        <v>316748.483</v>
+        <v>316965.298</v>
       </c>
       <c r="L41" s="1">
-        <v>11.5045</v>
+        <v>11.5123</v>
       </c>
       <c r="M41" s="1">
         <v>0.5</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-7</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3311</v>
@@ -6522,10 +6525,10 @@
         <v>599221.0204</v>
       </c>
       <c r="K42" s="1">
-        <v>328878.3993</v>
+        <v>329095.2144</v>
       </c>
       <c r="L42" s="1">
-        <v>11.5842</v>
+        <v>11.5919</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-6</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3637</v>
@@ -6575,10 +6578,10 @@
         <v>610094.5923</v>
       </c>
       <c r="K43" s="1">
-        <v>304400.1052</v>
+        <v>304714.7582</v>
       </c>
       <c r="L43" s="1">
-        <v>11.3596</v>
+        <v>11.3714</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.6447</v>
@@ -6628,10 +6631,10 @@
         <v>600401.5593</v>
       </c>
       <c r="K44" s="1">
-        <v>313563.1389</v>
+        <v>313877.7919</v>
       </c>
       <c r="L44" s="1">
-        <v>11.4473</v>
+        <v>11.4588</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-4</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.486</v>
@@ -6681,10 +6684,10 @@
         <v>659637.2524</v>
       </c>
       <c r="K45" s="1">
-        <v>343338.4728</v>
+        <v>343653.1258</v>
       </c>
       <c r="L45" s="1">
-        <v>11.6698</v>
+        <v>11.6805</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.1958</v>
@@ -6734,10 +6737,10 @@
         <v>689805.2239</v>
       </c>
       <c r="K46" s="1">
-        <v>328577.6042</v>
+        <v>328951.236</v>
       </c>
       <c r="L46" s="1">
-        <v>11.5413</v>
+        <v>11.5544</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-2</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.4264</v>
@@ -6787,10 +6790,10 @@
         <v>706214.1478</v>
       </c>
       <c r="K47" s="1">
-        <v>318368.8687</v>
+        <v>318783.2645</v>
       </c>
       <c r="L47" s="1">
-        <v>11.4354</v>
+        <v>11.4503</v>
       </c>
       <c r="M47" s="1">
         <v>0.75</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>17.107</v>
@@ -6840,10 +6843,10 @@
         <v>754050.382</v>
       </c>
       <c r="K48" s="1">
-        <v>321974.3366</v>
+        <v>322388.7324</v>
       </c>
       <c r="L48" s="1">
-        <v>11.4746</v>
+        <v>11.4894</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.8894</v>
@@ -6893,10 +6896,10 @@
         <v>758071.0465000001</v>
       </c>
       <c r="K49" s="1">
-        <v>312879.8241</v>
+        <v>313330.5634</v>
       </c>
       <c r="L49" s="1">
-        <v>11.3654</v>
+        <v>11.3818</v>
       </c>
       <c r="M49" s="1">
         <v>1</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>16.4004</v>
@@ -6946,10 +6949,10 @@
         <v>778886.3479000001</v>
       </c>
       <c r="K50" s="1">
-        <v>328923.2454</v>
+        <v>329373.9847</v>
       </c>
       <c r="L50" s="1">
-        <v>11.5504</v>
+        <v>11.5662</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>15.3877</v>
@@ -6999,10 +7002,10 @@
         <v>758532.9043000001</v>
       </c>
       <c r="K51" s="1">
-        <v>352916.0332</v>
+        <v>353366.7725</v>
       </c>
       <c r="L51" s="1">
-        <v>11.7885</v>
+        <v>11.8036</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>14.6367</v>
@@ -7052,10 +7055,10 @@
         <v>743968.7108</v>
       </c>
       <c r="K52" s="1">
-        <v>393335.0362</v>
+        <v>393785.7754</v>
       </c>
       <c r="L52" s="1">
-        <v>12.0808</v>
+        <v>12.0947</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.0061</v>
@@ -7105,10 +7108,10 @@
         <v>697015.4543</v>
       </c>
       <c r="K53" s="1">
-        <v>427875.7599</v>
+        <v>428326.4991</v>
       </c>
       <c r="L53" s="1">
-        <v>12.2552</v>
+        <v>12.2681</v>
       </c>
       <c r="M53" s="1">
         <v>0.5</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.835</v>
@@ -7158,10 +7161,10 @@
         <v>755597.2114</v>
       </c>
       <c r="K54" s="1">
-        <v>494959.1897</v>
+        <v>495409.9289</v>
       </c>
       <c r="L54" s="1">
-        <v>12.355</v>
+        <v>12.3663</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>14.4216</v>
@@ -7211,10 +7214,10 @@
         <v>788071.9168</v>
       </c>
       <c r="K55" s="1">
-        <v>471727.6208</v>
+        <v>472271.2012</v>
       </c>
       <c r="L55" s="1">
-        <v>12.2892</v>
+        <v>12.3034</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.2404</v>
@@ -7264,10 +7267,10 @@
         <v>753841.0514</v>
       </c>
       <c r="K56" s="1">
-        <v>459202.9049</v>
+        <v>459796.4957</v>
       </c>
       <c r="L56" s="1">
-        <v>12.2393</v>
+        <v>12.2551</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.382</v>
@@ -7317,10 +7320,10 @@
         <v>741472.0046</v>
       </c>
       <c r="K57" s="1">
-        <v>513651.2864</v>
+        <v>514244.8773</v>
       </c>
       <c r="L57" s="1">
-        <v>12.3406</v>
+        <v>12.3549</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.9583</v>
@@ -7370,10 +7373,10 @@
         <v>732128.4113</v>
       </c>
       <c r="K58" s="1">
-        <v>559492.8362</v>
+        <v>560086.427</v>
       </c>
       <c r="L58" s="1">
-        <v>12.346</v>
+        <v>12.3591</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.2036</v>
@@ -7423,10 +7426,10 @@
         <v>753703.289</v>
       </c>
       <c r="K59" s="1">
-        <v>588770.2019</v>
+        <v>589363.7927</v>
       </c>
       <c r="L59" s="1">
-        <v>12.3274</v>
+        <v>12.3398</v>
       </c>
       <c r="M59" s="1">
         <v>0.4</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.9136</v>
@@ -7476,10 +7479,10 @@
         <v>814642.3564</v>
       </c>
       <c r="K60" s="1">
-        <v>587071.493</v>
+        <v>587671.8769</v>
       </c>
       <c r="L60" s="1">
-        <v>12.3277</v>
+        <v>12.3403</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.4338</v>
@@ -7529,10 +7532,10 @@
         <v>848406.6141</v>
       </c>
       <c r="K61" s="1">
-        <v>563231.165</v>
+        <v>563926.8034</v>
       </c>
       <c r="L61" s="1">
-        <v>12.3031</v>
+        <v>12.3183</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.9657</v>
@@ -7582,10 +7585,10 @@
         <v>837502.4528</v>
       </c>
       <c r="K62" s="1">
-        <v>549411.6733</v>
+        <v>550162.5457</v>
       </c>
       <c r="L62" s="1">
-        <v>12.2765</v>
+        <v>12.2933</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-46</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-45</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-44</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-43</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-40</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-39</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-38</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-37</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-36</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-35</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-34</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.8576</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-33</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5699</v>
@@ -8456,10 +8459,10 @@
         <v>184850.2128</v>
       </c>
       <c r="K16" s="1">
-        <v>117462.5838</v>
+        <v>117469.6687</v>
       </c>
       <c r="L16" s="1">
-        <v>9.610200000000001</v>
+        <v>9.610799999999999</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-32</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5994</v>
@@ -8509,10 +8512,10 @@
         <v>207566.2525</v>
       </c>
       <c r="K17" s="1">
-        <v>119504.8304</v>
+        <v>119511.9153</v>
       </c>
       <c r="L17" s="1">
-        <v>9.6493</v>
+        <v>9.649800000000001</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-31</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6663</v>
@@ -8562,10 +8565,10 @@
         <v>236174.0446</v>
       </c>
       <c r="K18" s="1">
-        <v>117549.6567</v>
+        <v>117564.5471</v>
       </c>
       <c r="L18" s="1">
-        <v>9.6027</v>
+        <v>9.603899999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-30</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.701</v>
@@ -8615,10 +8618,10 @@
         <v>246592.3862</v>
       </c>
       <c r="K19" s="1">
-        <v>115336.9205</v>
+        <v>115360.6493</v>
       </c>
       <c r="L19" s="1">
-        <v>9.539199999999999</v>
+        <v>9.5412</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-29</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8109</v>
@@ -8668,10 +8671,10 @@
         <v>245176.4103</v>
       </c>
       <c r="K20" s="1">
-        <v>125845.4624</v>
+        <v>125869.1912</v>
       </c>
       <c r="L20" s="1">
-        <v>9.8285</v>
+        <v>9.830299999999999</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-28</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.9322</v>
@@ -8721,10 +8724,10 @@
         <v>268355.8422</v>
       </c>
       <c r="K21" s="1">
-        <v>148248.2323</v>
+        <v>148271.9611</v>
       </c>
       <c r="L21" s="1">
-        <v>10.2786</v>
+        <v>10.2802</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.5846</v>
@@ -8774,10 +8777,10 @@
         <v>258026.5767</v>
       </c>
       <c r="K22" s="1">
-        <v>157534.1464</v>
+        <v>157557.8752</v>
       </c>
       <c r="L22" s="1">
-        <v>10.4409</v>
+        <v>10.4424</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-26</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2867</v>
@@ -8827,10 +8830,10 @@
         <v>262673.1875</v>
       </c>
       <c r="K23" s="1">
-        <v>189001.0205</v>
+        <v>189024.7493</v>
       </c>
       <c r="L23" s="1">
-        <v>10.7487</v>
+        <v>10.75</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0645</v>
@@ -8880,10 +8883,10 @@
         <v>295204.4394</v>
       </c>
       <c r="K24" s="1">
-        <v>205398.3698</v>
+        <v>205422.0986</v>
       </c>
       <c r="L24" s="1">
-        <v>10.8587</v>
+        <v>10.86</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8083</v>
@@ -8933,10 +8936,10 @@
         <v>319044.7973</v>
       </c>
       <c r="K25" s="1">
-        <v>201859.8161</v>
+        <v>201897.6822</v>
       </c>
       <c r="L25" s="1">
-        <v>10.8263</v>
+        <v>10.8284</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.5636</v>
@@ -8986,10 +8989,10 @@
         <v>324538.1442</v>
       </c>
       <c r="K26" s="1">
-        <v>199224.4452</v>
+        <v>199272.8444</v>
       </c>
       <c r="L26" s="1">
-        <v>10.7953</v>
+        <v>10.7979</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-22</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.1788</v>
@@ -9039,10 +9042,10 @@
         <v>335243.3106</v>
       </c>
       <c r="K27" s="1">
-        <v>215065.9886</v>
+        <v>215114.3878</v>
       </c>
       <c r="L27" s="1">
-        <v>10.9614</v>
+        <v>10.9638</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.5668</v>
@@ -9092,10 +9095,10 @@
         <v>374334.58</v>
       </c>
       <c r="K28" s="1">
-        <v>234005.8585</v>
+        <v>234054.2576</v>
       </c>
       <c r="L28" s="1">
-        <v>11.1142</v>
+        <v>11.1165</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-20</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.962</v>
@@ -9145,10 +9148,10 @@
         <v>372364.3155</v>
       </c>
       <c r="K29" s="1">
-        <v>216152.1429</v>
+        <v>216271.8542</v>
       </c>
       <c r="L29" s="1">
-        <v>10.8995</v>
+        <v>10.9055</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2659</v>
@@ -9198,10 +9201,10 @@
         <v>354781.8088</v>
       </c>
       <c r="K30" s="1">
-        <v>239657.8479</v>
+        <v>239777.5592</v>
       </c>
       <c r="L30" s="1">
-        <v>11.1408</v>
+        <v>11.1464</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.4103</v>
@@ -9251,10 +9254,10 @@
         <v>368253.4542</v>
       </c>
       <c r="K31" s="1">
-        <v>287761.484</v>
+        <v>287881.1953</v>
       </c>
       <c r="L31" s="1">
-        <v>11.3178</v>
+        <v>11.3225</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-17</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.3976</v>
@@ -9304,10 +9307,10 @@
         <v>377890.787</v>
       </c>
       <c r="K32" s="1">
-        <v>295685.5568</v>
+        <v>295805.268</v>
       </c>
       <c r="L32" s="1">
-        <v>11.3451</v>
+        <v>11.3497</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-16</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9013</v>
@@ -9357,10 +9360,10 @@
         <v>413158.2006</v>
       </c>
       <c r="K33" s="1">
-        <v>307678.4395</v>
+        <v>307798.1508</v>
       </c>
       <c r="L33" s="1">
-        <v>11.3836</v>
+        <v>11.388</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3527</v>
@@ -9410,10 +9413,10 @@
         <v>435267.3886</v>
       </c>
       <c r="K34" s="1">
-        <v>305755.7589</v>
+        <v>305883.1595</v>
       </c>
       <c r="L34" s="1">
-        <v>11.3751</v>
+        <v>11.3798</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8804</v>
@@ -9463,10 +9466,10 @@
         <v>459407.1348</v>
       </c>
       <c r="K35" s="1">
-        <v>305375.4815</v>
+        <v>305504.4027</v>
       </c>
       <c r="L35" s="1">
-        <v>11.373</v>
+        <v>11.3778</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6268</v>
@@ -9516,10 +9519,10 @@
         <v>501367.6817</v>
       </c>
       <c r="K36" s="1">
-        <v>303015.3838</v>
+        <v>303153.7399</v>
       </c>
       <c r="L36" s="1">
-        <v>11.3568</v>
+        <v>11.362</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3636</v>
@@ -9569,10 +9572,10 @@
         <v>530582.0022</v>
       </c>
       <c r="K37" s="1">
-        <v>294953.6453</v>
+        <v>295124.18</v>
       </c>
       <c r="L37" s="1">
-        <v>11.2874</v>
+        <v>11.2939</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.8711</v>
@@ -9622,10 +9625,10 @@
         <v>502369.3169</v>
       </c>
       <c r="K38" s="1">
-        <v>287617.2853</v>
+        <v>287817.1284</v>
       </c>
       <c r="L38" s="1">
-        <v>11.2111</v>
+        <v>11.2189</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-10</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1252</v>
@@ -9675,10 +9678,10 @@
         <v>531138.0403</v>
       </c>
       <c r="K39" s="1">
-        <v>337997.952</v>
+        <v>338197.7951</v>
       </c>
       <c r="L39" s="1">
-        <v>11.5438</v>
+        <v>11.5507</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-9</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1934</v>
@@ -9728,10 +9731,10 @@
         <v>543132.8001</v>
       </c>
       <c r="K40" s="1">
-        <v>342617.7516</v>
+        <v>342817.5947</v>
       </c>
       <c r="L40" s="1">
-        <v>11.5726</v>
+        <v>11.5794</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-8</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1176</v>
@@ -9781,10 +9784,10 @@
         <v>550800.4359</v>
       </c>
       <c r="K41" s="1">
-        <v>352731.7162</v>
+        <v>352931.5592</v>
       </c>
       <c r="L41" s="1">
-        <v>11.6348</v>
+        <v>11.6413</v>
       </c>
       <c r="M41" s="1">
         <v>0.5</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-7</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3311</v>
@@ -9834,10 +9837,10 @@
         <v>612340.2468</v>
       </c>
       <c r="K42" s="1">
-        <v>367228.7955</v>
+        <v>367428.6385</v>
       </c>
       <c r="L42" s="1">
-        <v>11.7169</v>
+        <v>11.7232</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-6</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3637</v>
@@ -9887,10 +9890,10 @@
         <v>623307.1341</v>
       </c>
       <c r="K43" s="1">
-        <v>341378.3827</v>
+        <v>341681.548</v>
       </c>
       <c r="L43" s="1">
-        <v>11.5101</v>
+        <v>11.5203</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.6447</v>
@@ -9940,10 +9943,10 @@
         <v>611449.4671</v>
       </c>
       <c r="K44" s="1">
-        <v>352725.8096</v>
+        <v>353028.9749</v>
       </c>
       <c r="L44" s="1">
-        <v>11.6043</v>
+        <v>11.6142</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-4</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.486</v>
@@ -9993,10 +9996,10 @@
         <v>676151.2232</v>
       </c>
       <c r="K45" s="1">
-        <v>387005.3654</v>
+        <v>387308.5307</v>
       </c>
       <c r="L45" s="1">
-        <v>11.8233</v>
+        <v>11.8326</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.1958</v>
@@ -10046,10 +10049,10 @@
         <v>708647.1151000001</v>
       </c>
       <c r="K46" s="1">
-        <v>371854.765</v>
+        <v>372218.4664</v>
       </c>
       <c r="L46" s="1">
-        <v>11.7098</v>
+        <v>11.7212</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-2</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.4264</v>
@@ -10099,10 +10102,10 @@
         <v>725814.3093</v>
       </c>
       <c r="K47" s="1">
-        <v>361772.5529</v>
+        <v>362176.513</v>
       </c>
       <c r="L47" s="1">
-        <v>11.6196</v>
+        <v>11.6326</v>
       </c>
       <c r="M47" s="1">
         <v>0.75</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>17.107</v>
@@ -10152,10 +10155,10 @@
         <v>778177.0158000001</v>
       </c>
       <c r="K48" s="1">
-        <v>367143.004</v>
+        <v>367546.9641</v>
       </c>
       <c r="L48" s="1">
-        <v>11.6698</v>
+        <v>11.6826</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.8894</v>
@@ -10205,10 +10208,10 @@
         <v>781455.522</v>
       </c>
       <c r="K49" s="1">
-        <v>358318.2664</v>
+        <v>358757.4919</v>
       </c>
       <c r="L49" s="1">
-        <v>11.5788</v>
+        <v>11.593</v>
       </c>
       <c r="M49" s="1">
         <v>1</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>16.4004</v>
@@ -10258,10 +10261,10 @@
         <v>803567.0612</v>
       </c>
       <c r="K50" s="1">
-        <v>377759.1</v>
+        <v>378198.3255</v>
       </c>
       <c r="L50" s="1">
-        <v>11.7701</v>
+        <v>11.7838</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>15.3877</v>
@@ -10311,10 +10314,10 @@
         <v>779263.2323</v>
       </c>
       <c r="K51" s="1">
-        <v>406240.1558</v>
+        <v>406679.3813</v>
       </c>
       <c r="L51" s="1">
-        <v>12.009</v>
+        <v>12.022</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>14.6367</v>
@@ -10364,10 +10367,10 @@
         <v>761428.9603</v>
       </c>
       <c r="K52" s="1">
-        <v>453386.8947</v>
+        <v>453826.1202</v>
       </c>
       <c r="L52" s="1">
-        <v>12.2916</v>
+        <v>12.3035</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.0061</v>
@@ -10417,10 +10420,10 @@
         <v>706732.9369</v>
       </c>
       <c r="K53" s="1">
-        <v>494027.4491</v>
+        <v>494466.6746</v>
       </c>
       <c r="L53" s="1">
-        <v>12.4575</v>
+        <v>12.4686</v>
       </c>
       <c r="M53" s="1">
         <v>0.5</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.835</v>
@@ -10470,10 +10473,10 @@
         <v>772006.3983</v>
       </c>
       <c r="K54" s="1">
-        <v>571768.2986</v>
+        <v>572207.5241</v>
       </c>
       <c r="L54" s="1">
-        <v>12.5327</v>
+        <v>12.5423</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>14.4216</v>
@@ -10523,10 +10526,10 @@
         <v>807667.4746</v>
       </c>
       <c r="K55" s="1">
-        <v>546891.125</v>
+        <v>547429.768</v>
       </c>
       <c r="L55" s="1">
-        <v>12.4782</v>
+        <v>12.4905</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.2404</v>
@@ -10576,10 +10579,10 @@
         <v>767034.0345</v>
       </c>
       <c r="K56" s="1">
-        <v>534205.1002</v>
+        <v>534794.3978</v>
       </c>
       <c r="L56" s="1">
-        <v>12.4379</v>
+        <v>12.4516</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.382</v>
@@ -10629,10 +10632,10 @@
         <v>751313.8573</v>
       </c>
       <c r="K57" s="1">
-        <v>598184.9682999999</v>
+        <v>598774.2659</v>
       </c>
       <c r="L57" s="1">
-        <v>12.5216</v>
+        <v>12.5339</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.9583</v>
@@ -10682,10 +10685,10 @@
         <v>739048.2339</v>
       </c>
       <c r="K58" s="1">
-        <v>652484.825</v>
+        <v>653074.1226</v>
       </c>
       <c r="L58" s="1">
-        <v>12.512</v>
+        <v>12.5233</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.2036</v>
@@ -10735,10 +10738,10 @@
         <v>762396.1908</v>
       </c>
       <c r="K59" s="1">
-        <v>687897.0006</v>
+        <v>688486.2982</v>
       </c>
       <c r="L59" s="1">
-        <v>12.4836</v>
+        <v>12.4943</v>
       </c>
       <c r="M59" s="1">
         <v>0.4</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.9136</v>
@@ -10788,10 +10791,10 @@
         <v>831268.8735</v>
       </c>
       <c r="K60" s="1">
-        <v>687694.8535</v>
+        <v>688284.9594000001</v>
       </c>
       <c r="L60" s="1">
-        <v>12.4836</v>
+        <v>12.4943</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.4338</v>
@@ -10841,10 +10844,10 @@
         <v>868830.5352</v>
       </c>
       <c r="K61" s="1">
-        <v>661911.302</v>
+        <v>662604.4264999999</v>
       </c>
       <c r="L61" s="1">
-        <v>12.4665</v>
+        <v>12.4796</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.9657</v>
@@ -10894,10 +10897,10 @@
         <v>854522.469</v>
       </c>
       <c r="K62" s="1">
-        <v>647714.292</v>
+        <v>648464.1595</v>
       </c>
       <c r="L62" s="1">
-        <v>12.4464</v>
+        <v>12.4608</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-46</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-45</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-44</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-43</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-40</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-39</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-38</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-37</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-36</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-35</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-34</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.8576</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-33</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5699</v>
@@ -11768,10 +11771,10 @@
         <v>185905.3577</v>
       </c>
       <c r="K16" s="1">
-        <v>121729.5058</v>
+        <v>121735.2718</v>
       </c>
       <c r="L16" s="1">
-        <v>9.6373</v>
+        <v>9.6378</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-32</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5994</v>
@@ -11821,10 +11824,10 @@
         <v>209078.3841</v>
       </c>
       <c r="K17" s="1">
-        <v>124254.9423</v>
+        <v>124260.7083</v>
       </c>
       <c r="L17" s="1">
-        <v>9.6836</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-31</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6663</v>
@@ -11874,10 +11877,10 @@
         <v>238392.1411</v>
       </c>
       <c r="K18" s="1">
-        <v>122675.2132</v>
+        <v>122687.2858</v>
       </c>
       <c r="L18" s="1">
-        <v>9.647600000000001</v>
+        <v>9.6486</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-30</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.701</v>
@@ -11927,10 +11930,10 @@
         <v>248827.8132</v>
       </c>
       <c r="K19" s="1">
-        <v>120854.1565</v>
+        <v>120873.503</v>
       </c>
       <c r="L19" s="1">
-        <v>9.597899999999999</v>
+        <v>9.599500000000001</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-29</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8109</v>
@@ -11980,10 +11983,10 @@
         <v>246906.1621</v>
       </c>
       <c r="K20" s="1">
-        <v>132307.3242</v>
+        <v>132326.6708</v>
       </c>
       <c r="L20" s="1">
-        <v>9.8964</v>
+        <v>9.8979</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-28</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.9322</v>
@@ -12033,10 +12036,10 @@
         <v>270669.7337</v>
       </c>
       <c r="K21" s="1">
-        <v>156240.2923</v>
+        <v>156259.6389</v>
       </c>
       <c r="L21" s="1">
-        <v>10.348</v>
+        <v>10.3493</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.5846</v>
@@ -12086,10 +12089,10 @@
         <v>259330.5964</v>
       </c>
       <c r="K22" s="1">
-        <v>166535.599</v>
+        <v>166554.9456</v>
       </c>
       <c r="L22" s="1">
-        <v>10.5162</v>
+        <v>10.5174</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-26</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2867</v>
@@ -12139,10 +12142,10 @@
         <v>263695.0949</v>
       </c>
       <c r="K23" s="1">
-        <v>200169.918</v>
+        <v>200189.2645</v>
       </c>
       <c r="L23" s="1">
-        <v>10.818</v>
+        <v>10.819</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0645</v>
@@ -12192,10 +12195,10 @@
         <v>297442.8073</v>
       </c>
       <c r="K24" s="1">
-        <v>218066.4265</v>
+        <v>218085.7731</v>
       </c>
       <c r="L24" s="1">
-        <v>10.9268</v>
+        <v>10.9277</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8083</v>
@@ -12245,10 +12248,10 @@
         <v>322083.5691</v>
       </c>
       <c r="K25" s="1">
-        <v>215008.6782</v>
+        <v>215040.2411</v>
       </c>
       <c r="L25" s="1">
-        <v>10.9011</v>
+        <v>10.9027</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.5636</v>
@@ -12298,10 +12301,10 @@
         <v>327303.7538</v>
       </c>
       <c r="K26" s="1">
-        <v>212931.2434</v>
+        <v>212971.1094</v>
       </c>
       <c r="L26" s="1">
-        <v>10.8786</v>
+        <v>10.8807</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-22</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.1788</v>
@@ -12351,10 +12354,10 @@
         <v>338027.6141</v>
       </c>
       <c r="K27" s="1">
-        <v>230478.5127</v>
+        <v>230518.3787</v>
       </c>
       <c r="L27" s="1">
-        <v>11.0465</v>
+        <v>11.0484</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.5668</v>
@@ -12404,10 +12407,10 @@
         <v>379042.3572</v>
       </c>
       <c r="K28" s="1">
-        <v>251400.5335</v>
+        <v>251440.3995</v>
       </c>
       <c r="L28" s="1">
-        <v>11.1988</v>
+        <v>11.2006</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-20</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.962</v>
@@ -12457,10 +12460,10 @@
         <v>376245.6371</v>
       </c>
       <c r="K29" s="1">
-        <v>233181.9288</v>
+        <v>233294.5644</v>
       </c>
       <c r="L29" s="1">
-        <v>10.9988</v>
+        <v>11.0041</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2659</v>
@@ -12510,10 +12513,10 @@
         <v>356652.0233</v>
       </c>
       <c r="K30" s="1">
-        <v>259164.5568</v>
+        <v>259277.1924</v>
       </c>
       <c r="L30" s="1">
-        <v>11.2397</v>
+        <v>11.2446</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.4103</v>
@@ -12563,10 +12566,10 @@
         <v>370380.0999</v>
       </c>
       <c r="K31" s="1">
-        <v>311617.1052</v>
+        <v>311729.7408</v>
       </c>
       <c r="L31" s="1">
-        <v>11.4038</v>
+        <v>11.408</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-17</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.3976</v>
@@ -12616,10 +12619,10 @@
         <v>379985.6685</v>
       </c>
       <c r="K32" s="1">
-        <v>321062.2714</v>
+        <v>321174.907</v>
       </c>
       <c r="L32" s="1">
-        <v>11.4317</v>
+        <v>11.4357</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-16</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9013</v>
@@ -12669,10 +12672,10 @@
         <v>417249.0662</v>
       </c>
       <c r="K33" s="1">
-        <v>334952.9046</v>
+        <v>335065.5402</v>
       </c>
       <c r="L33" s="1">
-        <v>11.4697</v>
+        <v>11.4735</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3527</v>
@@ -12722,10 +12725,10 @@
         <v>440367.8403</v>
       </c>
       <c r="K34" s="1">
-        <v>333881.3612</v>
+        <v>333998.2822</v>
       </c>
       <c r="L34" s="1">
-        <v>11.4655</v>
+        <v>11.4695</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8804</v>
@@ -12775,10 +12778,10 @@
         <v>465725.0713</v>
       </c>
       <c r="K35" s="1">
-        <v>334514.5257</v>
+        <v>334631.4467</v>
       </c>
       <c r="L35" s="1">
-        <v>11.4686</v>
+        <v>11.4726</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6268</v>
@@ -12828,10 +12831,10 @@
         <v>510501.3794</v>
       </c>
       <c r="K36" s="1">
-        <v>333035.7522</v>
+        <v>333158.5848</v>
       </c>
       <c r="L36" s="1">
-        <v>11.4597</v>
+        <v>11.4639</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3636</v>
@@ -12881,10 +12884,10 @@
         <v>541486.1993</v>
       </c>
       <c r="K37" s="1">
-        <v>325380.1659</v>
+        <v>325533.5559</v>
       </c>
       <c r="L37" s="1">
-        <v>11.4012</v>
+        <v>11.4066</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.8711</v>
@@ -12934,10 +12937,10 @@
         <v>509639.5752</v>
       </c>
       <c r="K38" s="1">
-        <v>318534.0236</v>
+        <v>318714.7636</v>
       </c>
       <c r="L38" s="1">
-        <v>11.338</v>
+        <v>11.3444</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-10</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1252</v>
@@ -12987,10 +12990,10 @@
         <v>540210.3743</v>
       </c>
       <c r="K39" s="1">
-        <v>374913.4655</v>
+        <v>375094.2056</v>
       </c>
       <c r="L39" s="1">
-        <v>11.6611</v>
+        <v>11.6667</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-9</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1934</v>
@@ -13040,10 +13043,10 @@
         <v>552401.7663</v>
       </c>
       <c r="K40" s="1">
-        <v>381236.0251</v>
+        <v>381416.7651</v>
       </c>
       <c r="L40" s="1">
-        <v>11.6952</v>
+        <v>11.7008</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-8</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1176</v>
@@ -13093,10 +13096,10 @@
         <v>559821.6909</v>
       </c>
       <c r="K41" s="1">
-        <v>393664.303</v>
+        <v>393845.043</v>
       </c>
       <c r="L41" s="1">
-        <v>11.7612</v>
+        <v>11.7666</v>
       </c>
       <c r="M41" s="1">
         <v>0.5</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-7</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3311</v>
@@ -13146,10 +13149,10 @@
         <v>626832.9592</v>
       </c>
       <c r="K42" s="1">
-        <v>411005.2278</v>
+        <v>411185.9679</v>
       </c>
       <c r="L42" s="1">
-        <v>11.8455</v>
+        <v>11.8507</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-6</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3637</v>
@@ -13199,10 +13202,10 @@
         <v>637906.2859</v>
       </c>
       <c r="K43" s="1">
-        <v>383766.5988</v>
+        <v>384056.2097</v>
       </c>
       <c r="L43" s="1">
-        <v>11.6561</v>
+        <v>11.6649</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.6447</v>
@@ -13252,10 +13255,10 @@
         <v>623570.3811999999</v>
       </c>
       <c r="K44" s="1">
-        <v>397786.8057</v>
+        <v>398076.4165</v>
       </c>
       <c r="L44" s="1">
-        <v>11.7567</v>
+        <v>11.7653</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-4</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.486</v>
@@ -13305,10 +13308,10 @@
         <v>694538.5341</v>
       </c>
       <c r="K45" s="1">
-        <v>437412.8444</v>
+        <v>437702.4553</v>
       </c>
       <c r="L45" s="1">
-        <v>11.9723</v>
+        <v>11.9803</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.1958</v>
@@ -13358,10 +13361,10 @@
         <v>729717.2185</v>
       </c>
       <c r="K46" s="1">
-        <v>422016.0781</v>
+        <v>422367.2086</v>
       </c>
       <c r="L46" s="1">
-        <v>11.8734</v>
+        <v>11.8833</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-2</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.4264</v>
@@ -13411,10 +13414,10 @@
         <v>747761.2831999999</v>
       </c>
       <c r="K47" s="1">
-        <v>412291.7396</v>
+        <v>412681.6999</v>
       </c>
       <c r="L47" s="1">
-        <v>11.7987</v>
+        <v>11.8099</v>
       </c>
       <c r="M47" s="1">
         <v>0.75</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>17.107</v>
@@ -13464,10 +13467,10 @@
         <v>805366.7552</v>
       </c>
       <c r="K48" s="1">
-        <v>419926.2569</v>
+        <v>420316.2172</v>
       </c>
       <c r="L48" s="1">
-        <v>11.8598</v>
+        <v>11.8708</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.8894</v>
@@ -13517,10 +13520,10 @@
         <v>807781.0973</v>
       </c>
       <c r="K49" s="1">
-        <v>411648.8915</v>
+        <v>412071.9297</v>
       </c>
       <c r="L49" s="1">
-        <v>11.7867</v>
+        <v>11.7988</v>
       </c>
       <c r="M49" s="1">
         <v>1</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>16.4004</v>
@@ -13570,10 +13573,10 @@
         <v>831393.8917</v>
       </c>
       <c r="K50" s="1">
-        <v>435291.6251</v>
+        <v>435714.6633</v>
       </c>
       <c r="L50" s="1">
-        <v>11.9843</v>
+        <v>11.9959</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>15.3877</v>
@@ -13623,10 +13626,10 @@
         <v>802457.4909</v>
       </c>
       <c r="K51" s="1">
-        <v>469274.7983</v>
+        <v>469697.8365</v>
       </c>
       <c r="L51" s="1">
-        <v>12.224</v>
+        <v>12.235</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>14.6367</v>
@@ -13676,10 +13679,10 @@
         <v>780775.0077</v>
       </c>
       <c r="K52" s="1">
-        <v>524579.7729</v>
+        <v>525002.8111</v>
       </c>
       <c r="L52" s="1">
-        <v>12.4969</v>
+        <v>12.507</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.0061</v>
@@ -13729,10 +13732,10 @@
         <v>716937.0997</v>
       </c>
       <c r="K53" s="1">
-        <v>572679.8101</v>
+        <v>573102.8483</v>
       </c>
       <c r="L53" s="1">
-        <v>12.6541</v>
+        <v>12.6635</v>
       </c>
       <c r="M53" s="1">
         <v>0.5</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.835</v>
@@ -13782,10 +13785,10 @@
         <v>790128.177</v>
       </c>
       <c r="K54" s="1">
-        <v>663298.5841</v>
+        <v>663721.6223</v>
       </c>
       <c r="L54" s="1">
-        <v>12.7045</v>
+        <v>12.7126</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>14.4216</v>
@@ -13835,10 +13838,10 @@
         <v>829577.0723</v>
       </c>
       <c r="K55" s="1">
-        <v>636781.524</v>
+        <v>637310.5333</v>
       </c>
       <c r="L55" s="1">
-        <v>12.6604</v>
+        <v>12.6709</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.2404</v>
@@ -13888,10 +13891,10 @@
         <v>781306.145</v>
       </c>
       <c r="K56" s="1">
-        <v>624227.1580000001</v>
+        <v>624806.2961</v>
       </c>
       <c r="L56" s="1">
-        <v>12.629</v>
+        <v>12.6407</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.382</v>
@@ -13941,10 +13944,10 @@
         <v>761565.3286</v>
       </c>
       <c r="K57" s="1">
-        <v>699914.5538</v>
+        <v>700493.692</v>
       </c>
       <c r="L57" s="1">
-        <v>12.695</v>
+        <v>12.7055</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.9583</v>
@@ -13994,10 +13997,10 @@
         <v>745788.5768</v>
       </c>
       <c r="K58" s="1">
-        <v>764691.3761</v>
+        <v>765270.5142</v>
       </c>
       <c r="L58" s="1">
-        <v>12.67</v>
+        <v>12.6796</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.2036</v>
@@ -14047,10 +14050,10 @@
         <v>771146.6023</v>
       </c>
       <c r="K59" s="1">
-        <v>800187.9202000001</v>
+        <v>800767.0584</v>
       </c>
       <c r="L59" s="1">
-        <v>12.6379</v>
+        <v>12.647</v>
       </c>
       <c r="M59" s="1">
         <v>0.4</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.9136</v>
@@ -14100,10 +14103,10 @@
         <v>849335.1507</v>
       </c>
       <c r="K60" s="1">
-        <v>809981.0772000001</v>
+        <v>810560.2154</v>
       </c>
       <c r="L60" s="1">
-        <v>12.6327</v>
+        <v>12.6418</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.4338</v>
@@ -14153,10 +14156,10 @@
         <v>891505.8979</v>
       </c>
       <c r="K61" s="1">
-        <v>782245.5619</v>
+        <v>782935.5177</v>
       </c>
       <c r="L61" s="1">
-        <v>12.6221</v>
+        <v>12.6333</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.9657</v>
@@ -14206,10 +14209,10 @@
         <v>873051.9653</v>
       </c>
       <c r="K62" s="1">
-        <v>768004.9938000001</v>
+        <v>768751.8666</v>
       </c>
       <c r="L62" s="1">
-        <v>12.6076</v>
+        <v>12.6198</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.244199999999999</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-46</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9413</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-45</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.9801</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-44</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.6477</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-43</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.568899999999999</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.429399999999999</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.603999999999999</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-40</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.3595</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-39</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.0875</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-38</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1692</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-37</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0872</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-36</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.0976</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-35</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8505</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-34</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>11.8576</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-33</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5699</v>
@@ -15080,10 +15083,10 @@
         <v>186996.342</v>
       </c>
       <c r="K16" s="1">
-        <v>126176.222</v>
+        <v>126180.5518</v>
       </c>
       <c r="L16" s="1">
-        <v>9.664199999999999</v>
+        <v>9.6645</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-32</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5994</v>
@@ -15133,10 +15136,10 @@
         <v>210646.5853</v>
       </c>
       <c r="K17" s="1">
-        <v>129224.4169</v>
+        <v>129228.7467</v>
       </c>
       <c r="L17" s="1">
-        <v>9.717499999999999</v>
+        <v>9.7179</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-31</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6663</v>
@@ -15186,10 +15189,10 @@
         <v>240699.4567</v>
       </c>
       <c r="K18" s="1">
-        <v>128059.6711</v>
+        <v>128068.6508</v>
       </c>
       <c r="L18" s="1">
-        <v>9.692299999999999</v>
+        <v>9.6929</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-30</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.701</v>
@@ -15239,10 +15242,10 @@
         <v>251153.3522</v>
       </c>
       <c r="K19" s="1">
-        <v>126675.2477</v>
+        <v>126689.7574</v>
       </c>
       <c r="L19" s="1">
-        <v>9.6563</v>
+        <v>9.657400000000001</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-29</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8109</v>
@@ -15292,10 +15295,10 @@
         <v>248698.0621</v>
       </c>
       <c r="K20" s="1">
-        <v>139151.4416</v>
+        <v>139165.9513</v>
       </c>
       <c r="L20" s="1">
-        <v>9.9641</v>
+        <v>9.9651</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-28</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.9322</v>
@@ -15345,10 +15348,10 @@
         <v>273078.1138</v>
       </c>
       <c r="K21" s="1">
-        <v>164732.4755</v>
+        <v>164746.9852</v>
       </c>
       <c r="L21" s="1">
-        <v>10.417</v>
+        <v>10.4179</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-27</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.5846</v>
@@ -15398,10 +15401,10 @@
         <v>260666.0639</v>
       </c>
       <c r="K22" s="1">
-        <v>176134.0794</v>
+        <v>176148.5891</v>
       </c>
       <c r="L22" s="1">
-        <v>10.591</v>
+        <v>10.5918</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-26</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2867</v>
@@ -15451,10 +15454,10 @@
         <v>264729.7177</v>
       </c>
       <c r="K23" s="1">
-        <v>212112.9095</v>
+        <v>212127.4191</v>
       </c>
       <c r="L23" s="1">
-        <v>10.8866</v>
+        <v>10.8874</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0645</v>
@@ -15504,10 +15507,10 @@
         <v>299776.8346</v>
       </c>
       <c r="K24" s="1">
-        <v>231654.1237</v>
+        <v>231668.6333</v>
       </c>
       <c r="L24" s="1">
-        <v>10.9939</v>
+        <v>10.9946</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8083</v>
@@ -15557,10 +15560,10 @@
         <v>325276.6077</v>
       </c>
       <c r="K25" s="1">
-        <v>229162.3191</v>
+        <v>229186.784</v>
       </c>
       <c r="L25" s="1">
-        <v>10.9748</v>
+        <v>10.976</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.5636</v>
@@ -15610,10 +15613,10 @@
         <v>330202.6232</v>
       </c>
       <c r="K26" s="1">
-        <v>227740.6354</v>
+        <v>227770.7825</v>
       </c>
       <c r="L26" s="1">
-        <v>10.9607</v>
+        <v>10.9621</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-22</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.1788</v>
@@ -15663,10 +15666,10 @@
         <v>340944.5978</v>
       </c>
       <c r="K27" s="1">
-        <v>247187.3444</v>
+        <v>247217.4915</v>
       </c>
       <c r="L27" s="1">
-        <v>11.1301</v>
+        <v>11.1315</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.5668</v>
@@ -15716,10 +15719,10 @@
         <v>384044.755</v>
       </c>
       <c r="K28" s="1">
-        <v>270319.7141</v>
+        <v>270349.8613</v>
       </c>
       <c r="L28" s="1">
-        <v>11.2818</v>
+        <v>11.2831</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-20</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.962</v>
@@ -15769,10 +15772,10 @@
         <v>380348.8064</v>
       </c>
       <c r="K29" s="1">
-        <v>251780.1076</v>
+        <v>251884.3064</v>
       </c>
       <c r="L29" s="1">
-        <v>11.0963</v>
+        <v>11.1009</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2659</v>
@@ -15822,10 +15825,10 @@
         <v>358556.8493</v>
       </c>
       <c r="K30" s="1">
-        <v>280538.97</v>
+        <v>280643.1689</v>
       </c>
       <c r="L30" s="1">
-        <v>11.3367</v>
+        <v>11.3409</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.4103</v>
@@ -15875,10 +15878,10 @@
         <v>372565.5806</v>
       </c>
       <c r="K31" s="1">
-        <v>337827.8004</v>
+        <v>337931.9993</v>
       </c>
       <c r="L31" s="1">
-        <v>11.4879</v>
+        <v>11.4914</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-17</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.3976</v>
@@ -15928,10 +15931,10 @@
         <v>382135.8705</v>
       </c>
       <c r="K32" s="1">
-        <v>349034.7991</v>
+        <v>349138.998</v>
       </c>
       <c r="L32" s="1">
-        <v>11.516</v>
+        <v>11.5195</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-16</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9013</v>
@@ -15981,10 +15984,10 @@
         <v>421597.3528</v>
       </c>
       <c r="K33" s="1">
-        <v>365114.7239</v>
+        <v>365218.9228</v>
       </c>
       <c r="L33" s="1">
-        <v>11.5532</v>
+        <v>11.5565</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3527</v>
@@ -16034,10 +16037,10 @@
         <v>445833.7504</v>
       </c>
       <c r="K34" s="1">
-        <v>365093.0727</v>
+        <v>365197.3582</v>
       </c>
       <c r="L34" s="1">
-        <v>11.5531</v>
+        <v>11.5564</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-14</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.8804</v>
@@ -16087,10 +16090,10 @@
         <v>472541.2858</v>
       </c>
       <c r="K35" s="1">
-        <v>366967.4132</v>
+        <v>367071.6986</v>
       </c>
       <c r="L35" s="1">
-        <v>11.5612</v>
+        <v>11.5644</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6268</v>
@@ -16140,10 +16143,10 @@
         <v>520452.3675</v>
       </c>
       <c r="K36" s="1">
-        <v>366595.6888</v>
+        <v>366701.4603</v>
       </c>
       <c r="L36" s="1">
-        <v>11.5592</v>
+        <v>11.5625</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3636</v>
@@ -16193,10 +16196,10 @@
         <v>553417.6921</v>
       </c>
       <c r="K37" s="1">
-        <v>359530.0057</v>
+        <v>359663.9799</v>
       </c>
       <c r="L37" s="1">
-        <v>11.5114</v>
+        <v>11.5157</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.8711</v>
@@ -16246,10 +16249,10 @@
         <v>517491.9011</v>
       </c>
       <c r="K38" s="1">
-        <v>353378.921</v>
+        <v>353537.4685</v>
       </c>
       <c r="L38" s="1">
-        <v>11.4611</v>
+        <v>11.4662</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-10</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1252</v>
@@ -16299,10 +16302,10 @@
         <v>550087.7979</v>
       </c>
       <c r="K39" s="1">
-        <v>416648.7515</v>
+        <v>416807.299</v>
       </c>
       <c r="L39" s="1">
-        <v>11.7747</v>
+        <v>11.7792</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-9</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1934</v>
@@ -16352,10 +16355,10 @@
         <v>562500.8209</v>
       </c>
       <c r="K40" s="1">
-        <v>425056.4011</v>
+        <v>425214.9487</v>
       </c>
       <c r="L40" s="1">
-        <v>11.8139</v>
+        <v>11.8184</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-8</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.1176</v>
@@ -16405,10 +16408,10 @@
         <v>569639.0797</v>
       </c>
       <c r="K41" s="1">
-        <v>440278.5934</v>
+        <v>440437.141</v>
       </c>
       <c r="L41" s="1">
-        <v>11.8835</v>
+        <v>11.8878</v>
       </c>
       <c r="M41" s="1">
         <v>0.5</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-7</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3311</v>
@@ -16458,10 +16461,10 @@
         <v>642872.3486</v>
       </c>
       <c r="K42" s="1">
-        <v>461034.5429</v>
+        <v>461193.0904</v>
       </c>
       <c r="L42" s="1">
-        <v>11.9697</v>
+        <v>11.9738</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-6</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>15.3637</v>
@@ -16511,10 +16514,10 @@
         <v>654067.2653</v>
       </c>
       <c r="K43" s="1">
-        <v>432416.4688</v>
+        <v>432689.4007</v>
       </c>
       <c r="L43" s="1">
-        <v>11.7973</v>
+        <v>11.8047</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>14.6447</v>
@@ -16564,10 +16567,10 @@
         <v>636889.5879</v>
       </c>
       <c r="K44" s="1">
-        <v>449702.8971</v>
+        <v>449975.829</v>
       </c>
       <c r="L44" s="1">
-        <v>11.9042</v>
+        <v>11.9114</v>
       </c>
       <c r="M44" s="1">
         <v>1</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-4</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>15.486</v>
@@ -16617,10 +16620,10 @@
         <v>715053.3284999999</v>
       </c>
       <c r="K45" s="1">
-        <v>495683.6096</v>
+        <v>495956.5415</v>
       </c>
       <c r="L45" s="1">
-        <v>12.1164</v>
+        <v>12.123</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-3</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.1958</v>
@@ -16670,10 +16673,10 @@
         <v>753329.2224</v>
       </c>
       <c r="K46" s="1">
-        <v>480242.4527</v>
+        <v>480577.0816</v>
       </c>
       <c r="L46" s="1">
-        <v>12.0316</v>
+        <v>12.04</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-2</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>16.4264</v>
@@ -16723,10 +16726,10 @@
         <v>772389.1907</v>
       </c>
       <c r="K47" s="1">
-        <v>471183.717</v>
+        <v>471554.5178</v>
       </c>
       <c r="L47" s="1">
-        <v>11.9721</v>
+        <v>11.9815</v>
       </c>
       <c r="M47" s="1">
         <v>0.75</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>17.107</v>
@@ -16776,10 +16779,10 @@
         <v>836078.638</v>
       </c>
       <c r="K48" s="1">
-        <v>481707.8878</v>
+        <v>482078.6887</v>
       </c>
       <c r="L48" s="1">
-        <v>12.0438</v>
+        <v>12.0531</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.8894</v>
@@ -16829,10 +16832,10 @@
         <v>837484.6866</v>
       </c>
       <c r="K49" s="1">
-        <v>474348.2193</v>
+        <v>474748.4309</v>
       </c>
       <c r="L49" s="1">
-        <v>11.9885</v>
+        <v>11.9986</v>
       </c>
       <c r="M49" s="1">
         <v>1</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>16.4004</v>
@@ -16882,10 +16885,10 @@
         <v>862839.3882</v>
       </c>
       <c r="K50" s="1">
-        <v>503190.1714</v>
+        <v>503590.383</v>
       </c>
       <c r="L50" s="1">
-        <v>12.1923</v>
+        <v>12.202</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>15.3877</v>
@@ -16935,10 +16938,10 @@
         <v>828458.1169</v>
       </c>
       <c r="K51" s="1">
-        <v>543928.209</v>
+        <v>544328.4205</v>
       </c>
       <c r="L51" s="1">
-        <v>12.4326</v>
+        <v>12.4417</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>14.6367</v>
@@ -16988,10 +16991,10 @@
         <v>802236.333</v>
       </c>
       <c r="K52" s="1">
-        <v>609148.4831</v>
+        <v>609548.6946</v>
       </c>
       <c r="L52" s="1">
-        <v>12.6958</v>
+        <v>12.7042</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.0061</v>
@@ -17041,10 +17044,10 @@
         <v>727577.8537</v>
       </c>
       <c r="K53" s="1">
-        <v>666390.8428</v>
+        <v>666791.0543</v>
       </c>
       <c r="L53" s="1">
-        <v>12.844</v>
+        <v>12.8517</v>
       </c>
       <c r="M53" s="1">
         <v>0.5</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.835</v>
@@ -17094,10 +17097,10 @@
         <v>807657.2524999999</v>
       </c>
       <c r="K54" s="1">
-        <v>730517.7515</v>
+        <v>730917.963</v>
       </c>
       <c r="L54" s="1">
-        <v>12.8603</v>
+        <v>12.8674</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>14.4216</v>
@@ -17147,10 +17150,10 @@
         <v>851554.38</v>
       </c>
       <c r="K55" s="1">
-        <v>747212.3683</v>
+        <v>747612.5797999999</v>
       </c>
       <c r="L55" s="1">
-        <v>12.8811</v>
+        <v>12.888</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.2404</v>
@@ -17200,10 +17203,10 @@
         <v>794147.2198</v>
       </c>
       <c r="K56" s="1">
-        <v>735214.6822</v>
+        <v>735662.7998</v>
       </c>
       <c r="L56" s="1">
-        <v>12.8583</v>
+        <v>12.8662</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.382</v>
@@ -17253,10 +17256,10 @@
         <v>772414.2571</v>
       </c>
       <c r="K57" s="1">
-        <v>783817.3486</v>
+        <v>784265.4662</v>
       </c>
       <c r="L57" s="1">
-        <v>12.8829</v>
+        <v>12.8903</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.9583</v>
@@ -17306,10 +17309,10 @@
         <v>755525.9687</v>
       </c>
       <c r="K58" s="1">
-        <v>814401.4335</v>
+        <v>814849.5511</v>
       </c>
       <c r="L58" s="1">
-        <v>12.8644</v>
+        <v>12.8715</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.2036</v>
@@ -17359,10 +17362,10 @@
         <v>781187.7435</v>
       </c>
       <c r="K59" s="1">
-        <v>824401.4335</v>
+        <v>824849.5511</v>
       </c>
       <c r="L59" s="1">
-        <v>12.8529</v>
+        <v>12.8599</v>
       </c>
       <c r="M59" s="1">
         <v>0.4</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.9136</v>
@@ -17412,10 +17415,10 @@
         <v>860268.4583000001</v>
       </c>
       <c r="K60" s="1">
-        <v>834401.4335</v>
+        <v>834849.5511</v>
       </c>
       <c r="L60" s="1">
-        <v>12.8451</v>
+        <v>12.852</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.4338</v>
@@ -17465,10 +17468,10 @@
         <v>905183.9415</v>
       </c>
       <c r="K61" s="1">
-        <v>867492.243</v>
+        <v>867940.3606</v>
       </c>
       <c r="L61" s="1">
-        <v>12.8486</v>
+        <v>12.8553</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.9657</v>
@@ -17518,10 +17521,10 @@
         <v>883260.1113</v>
       </c>
       <c r="K62" s="1">
-        <v>877492.243</v>
+        <v>877940.3606</v>
       </c>
       <c r="L62" s="1">
-        <v>12.8553</v>
+        <v>12.8619</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.0284</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2765</v>
+        <v>12.2933</v>
       </c>
       <c r="E3" s="1">
-        <v>12.4464</v>
+        <v>12.4608</v>
       </c>
       <c r="F3" s="1">
-        <v>12.6076</v>
+        <v>12.6198</v>
       </c>
       <c r="G3" s="1">
-        <v>12.8553</v>
+        <v>12.8619</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>296370.3387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9932</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.5223</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.3178</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1357</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0061</v>
       </c>
     </row>
   </sheetData>
